--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R206_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R206_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -709,10 +721,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -756,28 +768,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -802,28 +814,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1752,10 +1764,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1799,28 +1811,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1845,28 +1857,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2679,10 +2691,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="J88" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2726,28 +2738,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2772,28 +2784,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3403,10 +3415,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="J113" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3450,28 +3462,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3496,28 +3508,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3750,10 +3762,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="J125" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3797,28 +3809,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3843,28 +3855,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3923,10 +3935,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
+      <c r="J131" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
